--- a/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/_download/UserRegistrationFormTest.xlsx
+++ b/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/01_ClassUnitTest/_download/UserRegistrationFormTest.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\t-uchida\projects\Nablarch\nablarch-example-web\src\test\java\com\nablarch\example\app\web\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie304135\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3361C3-D699-419F-B4D3-8161B10A0010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D9FEC-D5AD-4A0D-B14F-72848AD8292C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15300" tabRatio="505" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testCharsetAndLength" sheetId="6" r:id="rId1"/>
     <sheet name="testSingleValidation" sheetId="7" r:id="rId2"/>
     <sheet name="testWholeFormValidation" sheetId="10" r:id="rId3"/>
+    <sheet name="testSetterAndGetter" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="135">
   <si>
     <t>半角英字</t>
     <rPh sb="0" eb="2">
@@ -385,10 +386,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>userName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[No]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -397,22 +394,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>interpolateValue1_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>interpolateKey1_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>interpolateValue1_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>interpolateKey1_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>propertyName1</t>
   </si>
   <si>
@@ -430,19 +411,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>正常系（妥当なFormである場合）</t>
-    <rPh sb="0" eb="3">
-      <t>セイジョウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ダトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>testUser</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -451,106 +419,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>19980401</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xxxxyyyy</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>東京都新宿区</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シンジュクク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>{test.CheckPassword.message}</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>validPassword</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>異常系-1（不正なFormである場合）</t>
-    <rPh sb="0" eb="3">
-      <t>イジョウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>異常系-2（不正なFormである場合）</t>
-    <rPh sb="0" eb="3">
-      <t>イジョウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>妥当なFormでメッセージが出力されないこと。</t>
-    <rPh sb="0" eb="2">
-      <t>ダトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザー名の長さが不適切な場合、文字列長違反のメッセージが出力されること。</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>フテキセツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>モジレツチョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イハン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シュツリョク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -573,150 +450,16 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>異常系-3（不正なFormである場合）</t>
-    <rPh sb="0" eb="3">
-      <t>イジョウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>住所の文字種が不適切な場合、文字種違反のメッセージが出力されること。
-Defaultグループで検証される。</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>モジシュ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>フテキセツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="19">
-      <t>モジシュイハン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>charsetDef</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>全角文字</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンカクモジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ASCII文字</t>
-    <rPh sb="5" eb="7">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>住所の文字種が不適切な場合、文字種違反のメッセージが出力されること。
-ForEnglishグループで検証される。</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>モジシュ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>フテキセツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="19">
-      <t>モジシュイハン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>東京都新宿区</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シンジュクク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>異常系-4（不正なFormである場合）</t>
-    <rPh sb="0" eb="3">
-      <t>イジョウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{min}文字以上{max}文字以下で入力してください。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>com.nablarch.example.app.web.form.UserRegistrationForm$ForEnglish</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{nablarch.core.validation.ee.SystemChar.message}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>19980402</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>04-02-1998</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04-01-1998</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"Shinjuku-ku Tokyo"</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>newPassword</t>
@@ -1202,6 +945,70 @@
     <rPh sb="31" eb="33">
       <t>ケンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードと確認用パスワードが一致する場合、メッセージが出力されないこと。</t>
+    <rPh sb="6" eb="9">
+      <t>カクニンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LIST_MAP=setterAndGetter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>abcdefg0123@%&amp;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都新宿区</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンジュクク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19980807</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1895,7 +1702,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AC11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2096,7 +1905,7 @@
     </row>
     <row r="5" spans="1:29" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="12" t="s">
@@ -2173,7 +1982,7 @@
     </row>
     <row r="6" spans="1:29" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="12" t="s">
@@ -2330,7 +2139,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>22</v>
@@ -2412,10 +2221,10 @@
     </row>
     <row r="9" spans="1:29" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>22</v>
@@ -2491,10 +2300,10 @@
     </row>
     <row r="10" spans="1:29" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>22</v>
@@ -2576,7 +2385,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>20</v>
@@ -2702,7 +2511,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2723,7 +2532,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
@@ -2734,9 +2543,11 @@
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="C5" s="16" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
@@ -2749,10 +2560,10 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="4"/>
@@ -2764,10 +2575,10 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>54</v>
@@ -2784,13 +2595,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>54</v>
@@ -2807,13 +2618,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="4"/>
@@ -2825,7 +2636,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>58</v>
@@ -2846,7 +2657,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>70</v>
@@ -2867,7 +2678,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>59</v>
@@ -2888,7 +2699,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>60</v>
@@ -2909,7 +2720,7 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>61</v>
@@ -2930,7 +2741,7 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>62</v>
@@ -2951,7 +2762,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>63</v>
@@ -2972,7 +2783,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>64</v>
@@ -2993,7 +2804,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>65</v>
@@ -3014,7 +2825,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>66</v>
@@ -3035,7 +2846,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>67</v>
@@ -3056,7 +2867,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>68</v>
@@ -3077,7 +2888,7 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>69</v>
@@ -3097,10 +2908,10 @@
         <v>53</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>58</v>
@@ -3120,10 +2931,10 @@
         <v>53</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>70</v>
@@ -3143,10 +2954,10 @@
         <v>53</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>59</v>
@@ -3166,10 +2977,10 @@
         <v>53</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>60</v>
@@ -3189,10 +3000,10 @@
         <v>53</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>61</v>
@@ -3212,10 +3023,10 @@
         <v>53</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>62</v>
@@ -3235,10 +3046,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>63</v>
@@ -3258,10 +3069,10 @@
         <v>53</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>64</v>
@@ -3281,10 +3092,10 @@
         <v>53</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>145</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>65</v>
@@ -3304,10 +3115,10 @@
         <v>53</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>66</v>
@@ -3327,10 +3138,10 @@
         <v>53</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>67</v>
@@ -3350,10 +3161,10 @@
         <v>53</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>68</v>
@@ -3373,10 +3184,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>69</v>
@@ -3401,7 +3212,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3409,9 +3220,8 @@
   <cols>
     <col min="1" max="1" width="4.140625" style="19" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="36" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
@@ -3420,298 +3230,121 @@
     <col min="11" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="D3" s="30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E3" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="33.75" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="33.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="B9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="C9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="B10" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>88</v>
-      </c>
+      <c r="B11" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -3719,4 +3352,103 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63930946-712E-4E5E-8364-F79999344783}">
+  <dimension ref="B1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="1.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>